--- a/Planning/Feuilles de route/Feuilles_de_route_05_02 .xlsx
+++ b/Planning/Feuilles de route/Feuilles_de_route_05_02 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fef\Documents\DWWM_22238\ressources\Planning\Feuilles de route\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE90A29-CCA4-4157-8506-187E3CF153D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96896862-6866-40EF-9206-2559AA032242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Après-midi: 13-16h</t>
   </si>
   <si>
-    <t>Semaine du 24/04 au 28/04</t>
-  </si>
-  <si>
     <t>Réalisation des maquettes de groupes en HTML</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
     <t>GIT:
 * Retours sur les commandes
 * Explications des erreurs</t>
+  </si>
+  <si>
+    <t>Semaine du 02/05 au 05/05</t>
   </si>
 </sst>
 </file>
@@ -625,9 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -641,7 +639,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -670,13 +668,13 @@
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
       <c r="D4" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>13</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -686,10 +684,10 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="10"/>
@@ -697,7 +695,7 @@
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -722,7 +720,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1"/>
     </row>
